--- a/update_2911/Mẫu 9.xlsx
+++ b/update_2911/Mẫu 9.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336FF6D7-E731-487E-8505-CC24CFC9301F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Phụ lục 1: DANH SÁCH CỦA CƠ QUAN ĐĂNG KÝ GỬI CÔNG AN CẤP XÃ ĐỂ
 RÀ SOÁT, CẬP NHẬT VÀ BỔ SUNG DỮ LIỆU ĐĂNG KÝ XE; GIẤY PHÉP LÁI XE
@@ -42,6 +41,9 @@
     <t>II. DANH SÁCH XE NỀN MÀU TRẮNG/VÀNG, CHỮ VÀ SỐ MÀU ĐEN</t>
   </si>
   <si>
+    <t>Biển số/ màu biển</t>
+  </si>
+  <si>
     <t>Địa chỉ thường trú, địa chỉ hiện tại của chủ xe</t>
   </si>
   <si>
@@ -64,24 +66,12 @@
   </si>
   <si>
     <t>Bản sao chứng từ chuyển nhượng (nếu có)</t>
-  </si>
-  <si>
-    <t>Biển số</t>
-  </si>
-  <si>
-    <t>Màu biển</t>
-  </si>
-  <si>
-    <t>Ngày cấp CCCD của chủ xe</t>
-  </si>
-  <si>
-    <t>Ngày cấp CCCD/mã số thuế người mua.../ người đang sử dụng xe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,7 +166,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -458,28 +448,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.08984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.36328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9.90625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.36328125" style="2" customWidth="1"/>
-    <col min="11" max="13" width="10.36328125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.90625" style="2"/>
+    <col min="1" max="1" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="10.33203125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -493,11 +483,8 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -511,13 +498,10 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -529,55 +513,43 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" ht="111.65" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:11" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -591,11 +563,8 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -609,11 +578,8 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -627,11 +593,8 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -645,11 +608,8 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -663,11 +623,8 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -681,11 +638,8 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -699,11 +653,8 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -717,11 +668,8 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -735,11 +683,8 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -753,11 +698,8 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -771,11 +713,8 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -789,29 +728,43 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -825,11 +778,8 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -843,11 +793,8 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -861,11 +808,8 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -879,11 +823,8 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -897,11 +838,8 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -915,11 +853,8 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -933,11 +868,8 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -951,11 +883,8 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -969,11 +898,8 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>22</v>
       </c>
@@ -987,11 +913,8 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>23</v>
       </c>
@@ -1005,11 +928,8 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>24</v>
       </c>
@@ -1023,11 +943,8 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -1041,11 +958,8 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>26</v>
       </c>
@@ -1059,11 +973,8 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
@@ -1077,16 +988,13 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A32:N32"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A32:K32"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/update_2911/Mẫu 9.xlsx
+++ b/update_2911/Mẫu 9.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336FF6D7-E731-487E-8505-CC24CFC9301F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Phụ lục 1: DANH SÁCH CỦA CƠ QUAN ĐĂNG KÝ GỬI CÔNG AN CẤP XÃ ĐỂ
 RÀ SOÁT, CẬP NHẬT VÀ BỔ SUNG DỮ LIỆU ĐĂNG KÝ XE; GIẤY PHÉP LÁI XE
@@ -41,9 +42,6 @@
     <t>II. DANH SÁCH XE NỀN MÀU TRẮNG/VÀNG, CHỮ VÀ SỐ MÀU ĐEN</t>
   </si>
   <si>
-    <t>Biển số/ màu biển</t>
-  </si>
-  <si>
     <t>Địa chỉ thường trú, địa chỉ hiện tại của chủ xe</t>
   </si>
   <si>
@@ -66,12 +64,24 @@
   </si>
   <si>
     <t>Bản sao chứng từ chuyển nhượng (nếu có)</t>
+  </si>
+  <si>
+    <t>Biển số</t>
+  </si>
+  <si>
+    <t>Màu biển</t>
+  </si>
+  <si>
+    <t>Ngày cấp CCCD của chủ xe</t>
+  </si>
+  <si>
+    <t>Ngày cấp CCCD/mã số thuế người mua.../ người đang sử dụng xe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,7 +176,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -448,28 +458,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="2" customWidth="1"/>
-    <col min="9" max="10" width="10.33203125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.08984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9.90625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.36328125" style="2" customWidth="1"/>
+    <col min="11" max="13" width="10.36328125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -483,8 +493,11 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -498,10 +511,13 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -513,43 +529,55 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="111.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -563,8 +591,11 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -578,8 +609,11 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -593,8 +627,11 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -608,8 +645,11 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -623,8 +663,11 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -638,8 +681,11 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -653,8 +699,11 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -668,8 +717,11 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -683,8 +735,11 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -698,8 +753,11 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -713,8 +771,11 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -728,43 +789,29 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -778,8 +825,11 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -793,8 +843,11 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -808,8 +861,11 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -823,8 +879,11 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -838,8 +897,11 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -853,8 +915,11 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -868,8 +933,11 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -883,8 +951,11 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -898,8 +969,11 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>22</v>
       </c>
@@ -913,8 +987,11 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>23</v>
       </c>
@@ -928,8 +1005,11 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>24</v>
       </c>
@@ -943,8 +1023,11 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -958,8 +1041,11 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>26</v>
       </c>
@@ -973,8 +1059,11 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
@@ -988,13 +1077,16 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A32:N32"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
